--- a/feature/change-dependency-to-mos1.3.0/ig/StructureDefinition-BundleAgregateur.xlsx
+++ b/feature/change-dependency-to-mos1.3.0/ig/StructureDefinition-BundleAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-30T15:25:32+00:00</t>
+    <t>2024-08-30T15:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
